--- a/output_tables/SR2_results_M_LIN_non_calibrated_421S.xlsx
+++ b/output_tables/SR2_results_M_LIN_non_calibrated_421S.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.245</v>
+        <v>0.217</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3825</v>
+        <v>0.3955</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/output_tables/SR2_results_M_LIN_non_calibrated_421S.xlsx
+++ b/output_tables/SR2_results_M_LIN_non_calibrated_421S.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LT</t>
+          <t>BestFeatureLT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2 LT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS</t>
+          <t>BestFeatureLS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS2</t>
+          <t>BestFeatureLS2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS2</t>
+          <t>LS2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 10</t>
+          <t>BestFeature10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>R2 10</t>
+          <t>Top_layer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 50</t>
+          <t>BestFeature50</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R2 50</t>
+          <t>Bottom_layer</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -506,11 +506,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.182</v>
+        <v>0.1745</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.217</v>
+        <v>0.186</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,15 +526,15 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3955</v>
+        <v>0.3055</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.0445</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -553,35 +553,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1685</v>
+        <v>0.173</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.1685</v>
+        <v>0.173</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0285</v>
+        <v>0.0375</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.105</v>
+        <v>-0.106</v>
       </c>
     </row>
     <row r="4">
@@ -592,7 +592,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -647,35 +647,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRP2.1</t>
+          <t>PRP2QP</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.057</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRP2.1</t>
+          <t>PRP4QP</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.056</v>
+        <v>0.08449999999999999</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.334</v>
+        <v>0.347</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PRP4.1</t>
+          <t>PRP4QP</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.024</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="6">
@@ -686,7 +686,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -694,35 +694,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.397</v>
+        <v>0.394</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.397</v>
+        <v>0.394</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.2825</v>
+        <v>0.257</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>HCP2.0</t>
+          <t>HCP2QP</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-0.1275</v>
+        <v>-0.1065</v>
       </c>
     </row>
   </sheetData>
